--- a/analysis/participant_extractedmetrics/Participant120.xlsx
+++ b/analysis/participant_extractedmetrics/Participant120.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="88">
   <si>
     <t/>
   </si>
@@ -129,6 +129,9 @@
     <t>summary</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>arg</t>
   </si>
   <si>
@@ -271,13 +274,16 @@
   </si>
   <si>
     <t>pre-gemini</t>
+  </si>
+  <si>
+    <t>variable5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -288,6 +294,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -304,12 +315,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,6 +1270,26 @@
       <c r="AE10" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -1343,6 +1383,26 @@
         <v>0</v>
       </c>
       <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -1438,6 +1498,26 @@
       <c r="AE12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -1533,6 +1613,26 @@
       <c r="AE13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -1628,6 +1728,26 @@
       <c r="AE14" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -1723,6 +1843,26 @@
       <c r="AE15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -1818,8 +1958,766 @@
       <c r="AE16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>476.0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>286.0</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7550.65</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2636.57</v>
+      </c>
+      <c r="H23" s="4">
+        <v>250.57</v>
+      </c>
+      <c r="I23" s="4">
+        <v>116.97</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1726.97</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1335.63</v>
+      </c>
+      <c r="L23" s="4">
+        <v>4739.28</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2352.95</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="4">
+        <v>467.18</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="4">
+        <v>751.06</v>
+      </c>
+      <c r="T23" s="4">
+        <v>94345.25</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1793.79</v>
+      </c>
+      <c r="V23" s="4">
+        <v>133.49</v>
+      </c>
+      <c r="W23" s="4">
+        <v>116.97</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1151.21</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>75566.44</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>500.5</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.29</v>
+      </c>
+      <c r="T24" s="4">
+        <v>36.07</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>28.89</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="4">
+        <v>184.16</v>
+      </c>
+      <c r="G25" s="4">
+        <v>188.33</v>
+      </c>
+      <c r="H25" s="4">
+        <v>125.28</v>
+      </c>
+      <c r="I25" s="4">
+        <v>116.97</v>
+      </c>
+      <c r="J25" s="4">
+        <v>345.39</v>
+      </c>
+      <c r="K25" s="4">
+        <v>166.95</v>
+      </c>
+      <c r="L25" s="4">
+        <v>182.28</v>
+      </c>
+      <c r="M25" s="4">
+        <v>181.0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="4">
+        <v>155.73</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="4">
+        <v>250.35</v>
+      </c>
+      <c r="T25" s="4">
+        <v>198.2</v>
+      </c>
+      <c r="U25" s="4">
+        <v>298.96</v>
+      </c>
+      <c r="V25" s="4">
+        <v>133.49</v>
+      </c>
+      <c r="W25" s="4">
+        <v>116.97</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>191.87</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>264.22</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>500.5</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1839,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1851,25 +2749,25 @@
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>23</v>
@@ -1878,13 +2776,13 @@
         <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
@@ -2226,13 +3124,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -2241,25 +3139,25 @@
         <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>23</v>
@@ -2268,13 +3166,13 @@
         <v>37</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>0</v>
@@ -2614,7 +3512,639 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>398.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="4">
+        <v>363.0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6306.46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>283.52</v>
+      </c>
+      <c r="E25" s="4">
+        <v>76500.31</v>
+      </c>
+      <c r="F25" s="4">
+        <v>608.78</v>
+      </c>
+      <c r="G25" s="4">
+        <v>583.83</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1201.23</v>
+      </c>
+      <c r="K25" s="4">
+        <v>667.36</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="4">
+        <v>116082.3</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="E26" s="4">
+        <v>24.48</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="4">
+        <v>37.19</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4">
+        <v>225.23</v>
+      </c>
+      <c r="D27" s="4">
+        <v>141.76</v>
+      </c>
+      <c r="E27" s="4">
+        <v>192.21</v>
+      </c>
+      <c r="F27" s="4">
+        <v>202.93</v>
+      </c>
+      <c r="G27" s="4">
+        <v>194.61</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="4">
+        <v>240.25</v>
+      </c>
+      <c r="K27" s="4">
+        <v>333.68</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="4">
+        <v>319.79</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2634,16 +4164,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2655,133 +4185,133 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>0</v>
@@ -3735,19 +5265,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
@@ -3759,133 +5289,133 @@
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AZ11" s="1" t="s">
         <v>0</v>
@@ -4837,7 +6367,1047 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>94.0</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AQ22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AR22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AV22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>137.0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>453.0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>439.0</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AV23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4">
+        <v>183.42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4">
+        <v>650.74</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="4">
+        <v>633.95</v>
+      </c>
+      <c r="M24" s="4">
+        <v>517.27</v>
+      </c>
+      <c r="N24" s="4">
+        <v>24285.13</v>
+      </c>
+      <c r="O24" s="4">
+        <v>166.83</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1335.61</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>885.1</v>
+      </c>
+      <c r="R24" s="4">
+        <v>2136.12</v>
+      </c>
+      <c r="S24" s="4">
+        <v>450.51</v>
+      </c>
+      <c r="T24" s="4">
+        <v>2444.27</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1451.5</v>
+      </c>
+      <c r="V24" s="4">
+        <v>2720.04</v>
+      </c>
+      <c r="W24" s="4">
+        <v>13641.51</v>
+      </c>
+      <c r="X24" s="4">
+        <v>984.39</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>89076.48</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>942.87</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>9387.08</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>709.25</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>200.17</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>800.9</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1517.97</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>125644.1</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>300.3</v>
+      </c>
+      <c r="AP24" s="4">
+        <v>884.27</v>
+      </c>
+      <c r="AQ24" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="AV24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="N25" s="4">
+        <v>6.76</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="W25" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>24.78</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>34.95</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AV25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4">
+        <v>183.42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="4">
+        <v>162.68</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="4">
+        <v>633.95</v>
+      </c>
+      <c r="M26" s="4">
+        <v>258.63</v>
+      </c>
+      <c r="N26" s="4">
+        <v>177.26</v>
+      </c>
+      <c r="O26" s="4">
+        <v>166.83</v>
+      </c>
+      <c r="P26" s="4">
+        <v>222.6</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>221.27</v>
+      </c>
+      <c r="R26" s="4">
+        <v>194.19</v>
+      </c>
+      <c r="S26" s="4">
+        <v>225.26</v>
+      </c>
+      <c r="T26" s="4">
+        <v>203.69</v>
+      </c>
+      <c r="U26" s="4">
+        <v>161.28</v>
+      </c>
+      <c r="V26" s="4">
+        <v>194.29</v>
+      </c>
+      <c r="W26" s="4">
+        <v>194.88</v>
+      </c>
+      <c r="X26" s="4">
+        <v>246.1</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>196.64</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>157.15</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>195.56</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>177.31</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>200.17</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>168.66</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>286.21</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>300.3</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>294.76</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>166.87</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="AV26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>